--- a/data/trans_dic/P37A$medicoenfermedad-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoenfermedad-Edad-trans_dic.xlsx
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001731954043421489</v>
+        <v>0.001727327933514694</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002060673182575942</v>
+        <v>0.002048715145555828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002147526125584213</v>
+        <v>0.002147513009974536</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -723,25 +723,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002345233185715611</v>
+        <v>0.002403017502375634</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002341195643555834</v>
+        <v>0.00254230857046721</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003275141165885958</v>
+        <v>0.002961635968886954</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002634220786462311</v>
+        <v>0.002382313903649717</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003321769510702141</v>
+        <v>0.00322726660626409</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004101537351518248</v>
+        <v>0.004304901940501499</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002969899772310632</v>
+        <v>0.003194100663050022</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01705169794692639</v>
+        <v>0.01748164125200616</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0167902251237105</v>
+        <v>0.01677703441378497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02981656906884762</v>
+        <v>0.02425929944129352</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03784322622718991</v>
+        <v>0.03803612754750899</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01927970804177514</v>
+        <v>0.01658757992168391</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02318642045147775</v>
+        <v>0.0234432631568858</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02427018215942468</v>
+        <v>0.02438912595301883</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06470232205055713</v>
+        <v>0.0588179171565127</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01404284496919298</v>
+        <v>0.01301846358230146</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01551417779674554</v>
+        <v>0.01453538966075361</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01867515172663599</v>
+        <v>0.01942361786179934</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03360197994038057</v>
+        <v>0.03485857698998526</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004042837837925685</v>
+        <v>0.004207179462353102</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008791510533948117</v>
+        <v>0.009929608579551441</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003510890018736753</v>
+        <v>0.003770249187331504</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002448783755473218</v>
+        <v>0.002440645068102262</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00285200897592292</v>
+        <v>0.002870808803313553</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001601745652035448</v>
+        <v>0.001619601953909754</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003610975303024606</v>
+        <v>0.00347444838245679</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01080789313688815</v>
+        <v>0.01028439077067418</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004979182153825934</v>
+        <v>0.004710119581378519</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.007558845849460611</v>
+        <v>0.007581090121695415</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005195425879936114</v>
+        <v>0.005074854681574871</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.007832507704697378</v>
+        <v>0.007586685987006936</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01980049371885656</v>
+        <v>0.01976433128927785</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03137397816987075</v>
+        <v>0.03134290982387107</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02042315123943445</v>
+        <v>0.02226611427737798</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02284360869062827</v>
+        <v>0.02171700981688102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01628525183419447</v>
+        <v>0.01840756765897365</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01722372307590772</v>
+        <v>0.01598787285535955</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02161177214403764</v>
+        <v>0.02038440312773359</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0360946427351379</v>
+        <v>0.03644934904213833</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01461459511972986</v>
+        <v>0.01515321849267189</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01982053793342091</v>
+        <v>0.02111494738189502</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01634707886908797</v>
+        <v>0.01671303148989656</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02390773221284176</v>
+        <v>0.02346500956223105</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.01200808748938812</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02194610874129762</v>
+        <v>0.02194610874129761</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004267067100331669</v>
+        <v>0.004393907710740171</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005903791673469673</v>
+        <v>0.005849836972807985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002878683631335743</v>
+        <v>0.002888291880149965</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007317245108098265</v>
+        <v>0.007936942510551884</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007511532105643883</v>
+        <v>0.008351031505757344</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01391508039201206</v>
+        <v>0.01345221237132002</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008656990271692382</v>
+        <v>0.007742010040715183</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01829306108536994</v>
+        <v>0.01826332897152628</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008558481751278898</v>
+        <v>0.008124401104069229</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01194188420425634</v>
+        <v>0.01194530013698071</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.006800913994050695</v>
+        <v>0.007355808195293069</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01493884096334112</v>
+        <v>0.01483777904993954</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02564434188649615</v>
+        <v>0.0226100559804766</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02625312377490037</v>
+        <v>0.02616775741900624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01752695145209951</v>
+        <v>0.01864641695863944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0298659929488642</v>
+        <v>0.02969580953637587</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02772851381303579</v>
+        <v>0.02757126720636498</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03666451404185264</v>
+        <v>0.03719614414090581</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02821640960261182</v>
+        <v>0.02782707806981859</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04099841206489301</v>
+        <v>0.0402101287255717</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02072857217222204</v>
+        <v>0.02203359017721913</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02756247356330874</v>
+        <v>0.02683973906471304</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01884666931926059</v>
+        <v>0.01905027579698687</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03023432196548374</v>
+        <v>0.03081292730954279</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.02620811716463319</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04976640276942226</v>
+        <v>0.04976640276942228</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02233749329183537</v>
@@ -1105,7 +1105,7 @@
         <v>0.02784986928857124</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0499447532845262</v>
+        <v>0.04994475328452621</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01151086695910755</v>
+        <v>0.01001523578333277</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01714560562280945</v>
+        <v>0.01691770168057638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01760547145564532</v>
+        <v>0.01775831797459678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03496362629686742</v>
+        <v>0.03559849717014471</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0132628016505009</v>
+        <v>0.01302621417181702</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01705567648848441</v>
+        <v>0.01667719358032324</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01503779727477425</v>
+        <v>0.01503151855474861</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03743164399054436</v>
+        <v>0.0376558184831201</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01421231131200779</v>
+        <v>0.01462147319562304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02006820954533632</v>
+        <v>0.02082072761204802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01963668683592166</v>
+        <v>0.019437236565971</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04048917207701049</v>
+        <v>0.03994742295534277</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03634060640191047</v>
+        <v>0.03593213256709423</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04631316052114247</v>
+        <v>0.0466514162956873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04623505096977037</v>
+        <v>0.04584409434403185</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06935549688354524</v>
+        <v>0.07165915222139381</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03940509930164176</v>
+        <v>0.03877343698579752</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04852809548241429</v>
+        <v>0.04759764894511311</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0409005211885153</v>
+        <v>0.04234771043655478</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06246255312969891</v>
+        <v>0.06252487248771746</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03252302575213493</v>
+        <v>0.03346720896055042</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04143954509095489</v>
+        <v>0.04285449583911952</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03869802194052172</v>
+        <v>0.0389704178378962</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06169749173756811</v>
+        <v>0.06108737049912013</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.0444036716251409</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.09053618953259786</v>
+        <v>0.09053618953259787</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.0619128741842889</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04503399225807433</v>
+        <v>0.04648746392432525</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04748343250507508</v>
+        <v>0.04685060841808913</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05645208348163904</v>
+        <v>0.0541668631467057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08592095764014411</v>
+        <v>0.0865128676293158</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03550224671621927</v>
+        <v>0.03548610770264748</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05113727681694639</v>
+        <v>0.05003844319256572</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02849136793625437</v>
+        <v>0.0283018761721866</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07462199040936833</v>
+        <v>0.07320506583964773</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0455189910068043</v>
+        <v>0.04720163403375743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05390770303763373</v>
+        <v>0.055387444095362</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04723226386736616</v>
+        <v>0.04728590784085758</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08621056538240368</v>
+        <v>0.08433091251282493</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09952886240550342</v>
+        <v>0.09973932558354645</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09597418512246472</v>
+        <v>0.0966380673462082</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1064693658590371</v>
+        <v>0.1083473274313971</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1357262948635271</v>
+        <v>0.1326035137410908</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08027646794907055</v>
+        <v>0.08350390012853805</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09984284967707034</v>
+        <v>0.09808010293406118</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06847784106816249</v>
+        <v>0.06893662133234779</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1112990665205841</v>
+        <v>0.108181835451276</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08023678502165893</v>
+        <v>0.08394370564936887</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08993087721823366</v>
+        <v>0.09142605615439052</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08080592062306442</v>
+        <v>0.0796734319612221</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1145072158117703</v>
+        <v>0.113620260949152</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07315741467334885</v>
+        <v>0.0733516352079014</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0523151564851919</v>
+        <v>0.05191536722629191</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06040987943562724</v>
+        <v>0.05598892920614953</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07791054597058676</v>
+        <v>0.07491030611440706</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05584954221511035</v>
+        <v>0.05592690251469817</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08661813929008812</v>
+        <v>0.08395398455323672</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04053067039525723</v>
+        <v>0.03981878199857424</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1018603271267108</v>
+        <v>0.09761618157240252</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07240914276604192</v>
+        <v>0.07035261699779537</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07658232887479544</v>
+        <v>0.08011664566894898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05677302312504148</v>
+        <v>0.05469194783416465</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09475863376634161</v>
+        <v>0.0948702845493751</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1423332718342308</v>
+        <v>0.1433371598051689</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1235228570781568</v>
+        <v>0.1234018373367181</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1236925120151301</v>
+        <v>0.1196084941295572</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1270660877490182</v>
+        <v>0.1256280176100063</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1108706322619226</v>
+        <v>0.112984907124207</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1542480289896682</v>
+        <v>0.1589753907956312</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09008681949283893</v>
+        <v>0.09239746964401874</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1476484313806258</v>
+        <v>0.1450117939246089</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1157020872108861</v>
+        <v>0.1148220677134845</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1269316145037956</v>
+        <v>0.1262233603985564</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09497710650304533</v>
+        <v>0.09569378065774072</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1292917385546738</v>
+        <v>0.1274564929404405</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0881482030460521</v>
+        <v>0.08586504986917175</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07358128388973814</v>
+        <v>0.07029212076912641</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0430589290501002</v>
+        <v>0.04441842470367252</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09244780334191642</v>
+        <v>0.09628930452880234</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02409420664870466</v>
+        <v>0.02392451127966078</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04203884500877799</v>
+        <v>0.04019700821892665</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03473875438023941</v>
+        <v>0.03453510078760887</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1024196258115636</v>
+        <v>0.1031495110113892</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05624754921269359</v>
+        <v>0.05470641980449353</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06255363041741147</v>
+        <v>0.06334154161974105</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04477206230044787</v>
+        <v>0.04685809366390298</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.106416457594446</v>
+        <v>0.1045522314382586</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1772189219652508</v>
+        <v>0.1786790330421421</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.162427595382339</v>
+        <v>0.156797478335328</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1035677187224894</v>
+        <v>0.1052682135873863</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.157997454755449</v>
+        <v>0.1612064929058201</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06964917989180772</v>
+        <v>0.069962134524766</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09420089235197593</v>
+        <v>0.09308142155449832</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09090985779635623</v>
+        <v>0.08756484607846586</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1489451024050821</v>
+        <v>0.1481368052265407</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1020011915794903</v>
+        <v>0.09927992791013247</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1084106051327656</v>
+        <v>0.1086117120236933</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08541881892322528</v>
+        <v>0.08536509471117257</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1455723959890386</v>
+        <v>0.1442918174572913</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02871900396506423</v>
+        <v>0.0287844424725767</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03061496322051569</v>
+        <v>0.03052801165694937</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02863127859266876</v>
+        <v>0.02860936615282494</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04921247863461222</v>
+        <v>0.04834947732354042</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02290135013024068</v>
+        <v>0.02270688371739783</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03339624018432391</v>
+        <v>0.03371316454203181</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02453899013770878</v>
+        <v>0.0247551100565492</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05676079775955297</v>
+        <v>0.05695966577077938</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02677775560526552</v>
+        <v>0.0272110084014943</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03374588138088692</v>
+        <v>0.03380531369621251</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02843145918932089</v>
+        <v>0.02786326748044689</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05491706575460673</v>
+        <v>0.05442755227088842</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04084603057471007</v>
+        <v>0.04132856043287213</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04409251885017718</v>
+        <v>0.04423705375002228</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.041467434612122</v>
+        <v>0.04113076547287464</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06379730693654856</v>
+        <v>0.0628036006518419</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03417908653994418</v>
+        <v>0.03362272209657618</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04697741476441972</v>
+        <v>0.04695436037164726</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03586803397292448</v>
+        <v>0.0363571456808409</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06955029770133439</v>
+        <v>0.07045131145845128</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03513625489128989</v>
+        <v>0.0356365604755111</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04330354237896432</v>
+        <v>0.04331974193934728</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03672477391032956</v>
+        <v>0.03682832526660547</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06478809320547968</v>
+        <v>0.06409718517103329</v>
       </c>
     </row>
     <row r="28">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>901</v>
@@ -2026,25 +2026,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1009</v>
+        <v>1034</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>927</v>
+        <v>1006</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1187</v>
+        <v>1074</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2533</v>
+        <v>2291</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2938</v>
+        <v>2854</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3344</v>
+        <v>3509</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2288</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8425</v>
+        <v>8637</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7625</v>
+        <v>7619</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12507</v>
+        <v>10176</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15432</v>
+        <v>15511</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9013</v>
+        <v>7755</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9975</v>
+        <v>10086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9605</v>
+        <v>9652</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23455</v>
+        <v>21322</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>13503</v>
+        <v>12518</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13720</v>
+        <v>12855</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15224</v>
+        <v>15834</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25884</v>
+        <v>26852</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2973</v>
+        <v>3094</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6041</v>
+        <v>6823</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2073</v>
+        <v>2226</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1784</v>
+        <v>1796</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2035</v>
+        <v>1958</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5423</v>
+        <v>5160</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6777</v>
+        <v>6410</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9806</v>
+        <v>9835</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5996</v>
+        <v>5857</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7665</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14563</v>
+        <v>14536</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21557</v>
+        <v>21535</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12060</v>
+        <v>13148</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10894</v>
+        <v>10357</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10186</v>
+        <v>11514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10511</v>
+        <v>9757</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12179</v>
+        <v>11488</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18110</v>
+        <v>18288</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>19890</v>
+        <v>20623</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>25714</v>
+        <v>27393</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>18865</v>
+        <v>19288</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23397</v>
+        <v>22963</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2725</v>
+        <v>2806</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4026</v>
+        <v>3989</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1926</v>
+        <v>1933</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4543</v>
+        <v>4928</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5181</v>
+        <v>5760</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9892</v>
+        <v>9563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5726</v>
+        <v>5120</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11400</v>
+        <v>11382</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11369</v>
+        <v>10793</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>16632</v>
+        <v>16636</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9049</v>
+        <v>9787</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>18584</v>
+        <v>18459</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16378</v>
+        <v>14440</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17901</v>
+        <v>17843</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11727</v>
+        <v>12476</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18542</v>
+        <v>18436</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19126</v>
+        <v>19017</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26063</v>
+        <v>26441</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18662</v>
+        <v>18404</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25550</v>
+        <v>25059</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27536</v>
+        <v>29270</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38387</v>
+        <v>37380</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25075</v>
+        <v>25346</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>37612</v>
+        <v>38332</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5976</v>
+        <v>5199</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10538</v>
+        <v>10398</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11374</v>
+        <v>11473</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24496</v>
+        <v>24941</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6839</v>
+        <v>6717</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10510</v>
+        <v>10276</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9761</v>
+        <v>9757</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27583</v>
+        <v>27748</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14707</v>
+        <v>15130</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>24700</v>
+        <v>25626</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>25432</v>
+        <v>25174</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>58203</v>
+        <v>57425</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18866</v>
+        <v>18654</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28465</v>
+        <v>28673</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29870</v>
+        <v>29617</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>48592</v>
+        <v>50206</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20319</v>
+        <v>19993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29903</v>
+        <v>29330</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26548</v>
+        <v>27487</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>46028</v>
+        <v>46074</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>33654</v>
+        <v>34631</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>51004</v>
+        <v>52746</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>50119</v>
+        <v>50472</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>88690</v>
+        <v>87813</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17415</v>
+        <v>17977</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20391</v>
+        <v>20119</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26979</v>
+        <v>25887</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>52356</v>
+        <v>52716</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14342</v>
+        <v>14336</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>22899</v>
+        <v>22407</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14156</v>
+        <v>14062</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45434</v>
+        <v>44571</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>35992</v>
+        <v>37322</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>47289</v>
+        <v>48587</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>46040</v>
+        <v>46093</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>105022</v>
+        <v>102732</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>38489</v>
+        <v>38570</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>41214</v>
+        <v>41499</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50884</v>
+        <v>51781</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>82704</v>
+        <v>80801</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>32431</v>
+        <v>33734</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>44710</v>
+        <v>43920</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34023</v>
+        <v>34251</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>67765</v>
+        <v>65867</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>63443</v>
+        <v>66374</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>78890</v>
+        <v>80202</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>78767</v>
+        <v>77663</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>139493</v>
+        <v>138412</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>21405</v>
+        <v>21461</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>16207</v>
+        <v>16083</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20197</v>
+        <v>18719</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>31716</v>
+        <v>30494</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>19153</v>
+        <v>19179</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>30662</v>
+        <v>29719</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15311</v>
+        <v>15042</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>44734</v>
+        <v>42870</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>46017</v>
+        <v>44710</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>50834</v>
+        <v>53180</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>40428</v>
+        <v>38946</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>80189</v>
+        <v>80284</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>41644</v>
+        <v>41938</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>38266</v>
+        <v>38228</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41354</v>
+        <v>39989</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>51726</v>
+        <v>51141</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>38021</v>
+        <v>38746</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>54603</v>
+        <v>56277</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>34031</v>
+        <v>34904</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>64842</v>
+        <v>63684</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>73531</v>
+        <v>72971</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>84255</v>
+        <v>83785</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>67632</v>
+        <v>68143</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>109413</v>
+        <v>107860</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18501</v>
+        <v>18022</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>18384</v>
+        <v>17563</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11066</v>
+        <v>11415</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>28677</v>
+        <v>29869</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>8045</v>
+        <v>7989</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>16352</v>
+        <v>15636</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>13901</v>
+        <v>13820</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>47585</v>
+        <v>47924</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>30587</v>
+        <v>29749</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>39961</v>
+        <v>40464</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>29423</v>
+        <v>30794</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>82452</v>
+        <v>81008</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>37195</v>
+        <v>37502</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>40583</v>
+        <v>39176</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>26617</v>
+        <v>27054</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>49010</v>
+        <v>50006</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>23256</v>
+        <v>23361</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>36642</v>
+        <v>36207</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>36379</v>
+        <v>35041</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>69201</v>
+        <v>68826</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>55467</v>
+        <v>53988</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>69256</v>
+        <v>69384</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>56134</v>
+        <v>56099</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>112791</v>
+        <v>111798</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>94099</v>
+        <v>94313</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>104911</v>
+        <v>104613</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>97185</v>
+        <v>97110</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>173856</v>
+        <v>170807</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>77388</v>
+        <v>76731</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>118834</v>
+        <v>119962</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>86979</v>
+        <v>87746</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>212112</v>
+        <v>212856</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>178226</v>
+        <v>181109</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>235718</v>
+        <v>236133</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>197283</v>
+        <v>193340</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>399231</v>
+        <v>395673</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>133834</v>
+        <v>135415</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>151095</v>
+        <v>151591</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>140755</v>
+        <v>139612</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>225381</v>
+        <v>221870</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>115498</v>
+        <v>113618</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>167160</v>
+        <v>167078</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>127136</v>
+        <v>128869</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>259906</v>
+        <v>263273</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>233858</v>
+        <v>237188</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>302479</v>
+        <v>302592</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>254829</v>
+        <v>255548</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>470991</v>
+        <v>465968</v>
       </c>
     </row>
     <row r="36">
